--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1370.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1370.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.221516326407017</v>
+        <v>1.247803211212158</v>
       </c>
       <c r="B1">
-        <v>2.563406710673912</v>
+        <v>2.665286302566528</v>
       </c>
       <c r="C1">
-        <v>3.724546182987629</v>
+        <v>8.439303398132324</v>
       </c>
       <c r="D1">
-        <v>2.955452359996348</v>
+        <v>2.10633659362793</v>
       </c>
       <c r="E1">
-        <v>1.124499704652543</v>
+        <v>1.141396999359131</v>
       </c>
     </row>
   </sheetData>
